--- a/analysis_output/reliability_analysis.xlsx
+++ b/analysis_output/reliability_analysis.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.791</t>
+          <t>0.780</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.863</t>
+          <t>0.853</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.888</t>
+          <t>0.887</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.895</t>
+          <t>0.894</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.647</t>
+          <t>0.652</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.902</t>
+          <t>0.898</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
